--- a/data/worldometer global/20-06-10 Global wom raw data.xlsx
+++ b/data/worldometer global/20-06-10 Global wom raw data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{6DA43590-874A-48CB-A385-FB890213E5F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01A3CDF4-76AB-476F-919B-DCC1FCA8B7F2}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{6DA43590-874A-48CB-A385-FB890213E5F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1C46B82-DC1A-4A38-9E24-CB2CABB66F87}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="-20760" windowWidth="26505" windowHeight="17790" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
+    <workbookView xWindow="2730" yWindow="-20130" windowWidth="18825" windowHeight="17790" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -10525,7 +10525,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
